--- a/Análise de Eventos - FINAL/tabela_V2.xlsx
+++ b/Análise de Eventos - FINAL/tabela_V2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\israe\EngenhariaRequisitos\Análise de Eventos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1800866\Downloads\EngenhariaRequisitos-master\EngenhariaRequisitos-master\Análise de Eventos - FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CFE113-7C9D-4E9F-89F6-C2232201347D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>Capacidades</t>
   </si>
@@ -171,12 +170,18 @@
   </si>
   <si>
     <t xml:space="preserve">Vendedor </t>
+  </si>
+  <si>
+    <t>Repor produtos</t>
+  </si>
+  <si>
+    <t>Vendedor repõe produtos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,7 +209,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +264,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA5085"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -350,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,52 +388,58 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,13 +449,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,6 +464,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFA5085"/>
+      <color rgb="FFA9179F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -754,231 +777,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E6:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="14" t="s">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E7" s="8" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="D8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
         <v>6</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="5:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="5:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="18"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="5:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="5:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="22"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="5:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="23"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="5:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="5:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="33" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+  <mergeCells count="1">
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D7B4EF-616D-4FA8-8AFE-324AEAAB6BDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -987,80 +1029,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1100,180 +1142,180 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C29B2E8-5F72-43AC-ABE4-76F62761B02D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="31"/>
-    <col min="3" max="3" width="3.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="19.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="26"/>
+    <col min="3" max="3" width="3.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="26">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="26">
         <v>2</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31">
+      <c r="B4" s="31"/>
+      <c r="C4" s="26">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="26">
         <v>5</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="26">
         <v>6</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="26">
         <v>7</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="26">
         <v>8</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="26" t="s">
         <v>47</v>
       </c>
     </row>
